--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8295"/>
+    <workbookView windowWidth="8835" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>Address</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>21-29 THIRD AVENUE BLACKTOWN NSW 2148</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
   <si>
     <t>3 ROSELLA CLOSE BLAXLAND NSW 2774</t>
@@ -175,9 +178,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -201,23 +204,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +227,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -242,6 +245,29 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,16 +281,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,54 +305,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,25 +350,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,157 +518,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,6 +570,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -590,21 +604,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -619,13 +618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,148 +646,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,13 +1117,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A52" sqref="$A52:$XFD65"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1337,44 +1340,47 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="F44" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8835" windowHeight="7875"/>
+    <workbookView windowWidth="20385" windowHeight="8295"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,157 +19,157 @@
     <t>Address</t>
   </si>
   <si>
-    <t>15 GARIBALDI STREET TRARALGON VIC 3844</t>
-  </si>
-  <si>
-    <t>57 WARWICK STREET CLEARVIEW SA 5085</t>
-  </si>
-  <si>
-    <t>8 GEORGE FLEMMING ROAD WINGHAM NSW 2429</t>
-  </si>
-  <si>
-    <t>39 HAROLD REINHARDT DRIVE REDBANK PLAINS QLD 4301</t>
-  </si>
-  <si>
-    <t>8 O'REILLY CRESCENT SPRINGFIELD LAKES QLD 4300</t>
-  </si>
-  <si>
-    <t>42 DOG TRAP LANE INVERELL NSW 2360</t>
-  </si>
-  <si>
-    <t>1/105 SIMPSON AVENUE ROCKINGHAM WA 6168</t>
-  </si>
-  <si>
-    <t>15 ROSEMOUNT ENTRANCE PEARSALL WA 6065</t>
-  </si>
-  <si>
-    <t>3 VENTASSO STREET CLYDE NORTH VIC 3978</t>
-  </si>
-  <si>
-    <t>36/140 ENDEAVOUR BOULEVARD NORTH LAKES QLD 4509</t>
-  </si>
-  <si>
-    <t>1003/33 MACKENZIE STREET MELBOURNE VIC 3000</t>
-  </si>
-  <si>
-    <t>3 BOWRAL WAY TRARALGON VIC 3844</t>
-  </si>
-  <si>
-    <t>26 LINACRE CRESCENT CARINDALE QLD 4152</t>
-  </si>
-  <si>
-    <t>101 SWAN PARADE WARNER QLD 4500</t>
-  </si>
-  <si>
-    <t>72 MACQUARIE CIRCUIT FITZGIBBON QLD 4018</t>
-  </si>
-  <si>
-    <t>18 CORSICAN STREET FRANKSTON NORTH VIC 3200</t>
-  </si>
-  <si>
-    <t>3 TULLY LANE COOMERA QLD 4209</t>
-  </si>
-  <si>
-    <t>33 ALTERNATIVE WAY NIMBIN NSW 2480</t>
-  </si>
-  <si>
-    <t>305/17 GRATTAN CLOSE FOREST LODGE NSW 2037</t>
-  </si>
-  <si>
-    <t>1 SONOMA DRIVE HOLMVIEW QLD 4207</t>
-  </si>
-  <si>
-    <t>9 CASTLE CLOSE TOORADIN VIC 3980</t>
-  </si>
-  <si>
-    <t>21 SHELMORE DRIVE OLD BEACH TAS 7017</t>
-  </si>
-  <si>
-    <t>127 SEYMOUR STREET TRARALGON VIC 3844</t>
-  </si>
-  <si>
-    <t>2/122 ROBSONS ROAD WEST WOLLONGONG NSW 2500</t>
-  </si>
-  <si>
-    <t>1 OTHO STREET INVERELL NSW 2360</t>
-  </si>
-  <si>
-    <t>35/35-A ALBURY STREET ASHFORD NSW 2361</t>
-  </si>
-  <si>
-    <t>6 MCARTHUR PARADE BARINGA QLD 4551</t>
-  </si>
-  <si>
-    <t>62 DISCOVERY BOULEVARD MOE VIC 3825</t>
-  </si>
-  <si>
-    <t>10B WHITESIDE ROAD OFFICER VIC 3809</t>
-  </si>
-  <si>
-    <t>22 THANE COURT LLOYD NSW 2650</t>
-  </si>
-  <si>
-    <t>27 SHAILER ROAD SHAILER PARK QLD 4128</t>
-  </si>
-  <si>
-    <t>4/7 MAYHILL PLACE CRAIGIE WA 6025</t>
-  </si>
-  <si>
-    <t>6/7 MAYHILL PLACE CRAIGIE WA 6025</t>
-  </si>
-  <si>
-    <t>1/1B LLEWELLYN STREET CENTENARY HEIGHTS QLD 4350</t>
-  </si>
-  <si>
-    <t>17 FLANDERS PLACE ALEXANDER HEIGHTS WA 6064</t>
-  </si>
-  <si>
-    <t>4B NASH STREET HILLARYS WA 6025</t>
-  </si>
-  <si>
-    <t>18/89 BRITTEN-JONES DRIVE HOLT ACT 2615</t>
-  </si>
-  <si>
-    <t>109 ONKAPARINGA CRESCENT KALEEN ACT 2617</t>
-  </si>
-  <si>
-    <t>4/6 STODDART DRIVE BAYVIEW NT 0820</t>
-  </si>
-  <si>
-    <t>15/101 MITCHELL STREET DARWIN NT 0800</t>
-  </si>
-  <si>
-    <t>11 BLUE HAZE CRESCENT BANORA POINT NSW 2486</t>
-  </si>
-  <si>
-    <t>76 BOTANICAL CIRCUIT BANORA POINT NSW 2486</t>
-  </si>
-  <si>
-    <t>21-29 THIRD AVENUE BLACKTOWN NSW 2148</t>
+    <t>3 NEWCASTLE STREET THORNBURY VIC 3071</t>
+  </si>
+  <si>
+    <t>30 NELLEY WAY WICKHAM WA 6720</t>
+  </si>
+  <si>
+    <t>28 ACACIA WAY WALLAN VIC 3756</t>
+  </si>
+  <si>
+    <t>4 RIVERGLEN DRIVE WERRIBEE VIC 3030</t>
+  </si>
+  <si>
+    <t>53 FIRESTONE WAY WEST WODONGA VIC 3690</t>
+  </si>
+  <si>
+    <t>20 LORETTA AVENUE WHEELERS HILL VIC 3150</t>
+  </si>
+  <si>
+    <t>12 BEARDMORE STREET WODONGA VIC 3690</t>
+  </si>
+  <si>
+    <t>10 WHITELEY CIRCUIT BARANDUDA VIC 3691</t>
+  </si>
+  <si>
+    <t>302/3018 SURFERS PARADISE BOULEVARD SURFERS PARADISE QLD 4217</t>
+  </si>
+  <si>
+    <t>118 ALICE STREET GOODNA QLD 4300</t>
+  </si>
+  <si>
+    <t>119 BRIDGE STREET NORTH TOOWOOMBA QLD 4350</t>
+  </si>
+  <si>
+    <t>27 BALMORAL ROAD KELLYVILLE NSW 2155</t>
+  </si>
+  <si>
+    <t>45 DUNCAN STREET WEST END QLD 4101</t>
+  </si>
+  <si>
+    <t>6 PARKES DRIVE KORORA NSW 2450</t>
+  </si>
+  <si>
+    <t>8 DANBULLA STREET PIMPAMA QLD 4209</t>
+  </si>
+  <si>
+    <t>3/14-16 BURRENDONG WAY ORANGE NSW 2800</t>
+  </si>
+  <si>
+    <t>2 KYLA AVENUE DANDENONG VIC 3175</t>
+  </si>
+  <si>
+    <t>1/14 CLARA STREET EAST MAITLAND NSW 2323</t>
+  </si>
+  <si>
+    <t>142/350 LEITCHS ROAD BRENDALE QLD 4500</t>
+  </si>
+  <si>
+    <t>46C THE PROMENADE MOUNT PLEASANT WA 6153</t>
+  </si>
+  <si>
+    <t>26 KINSALE PARKWAY CANNING VALE WA 6155</t>
+  </si>
+  <si>
+    <t>17 SOLOMON PARADE WARNER QLD 4500</t>
+  </si>
+  <si>
+    <t>410/3 ALMA ROAD MACQUARIE PARK NSW 2113</t>
+  </si>
+  <si>
+    <t>89 BAY PARK ROAD WONDUNNA QLD 4655</t>
+  </si>
+  <si>
+    <t>4/17 DENBIGH PLACE SOUTH NOWRA NSW 2541</t>
+  </si>
+  <si>
+    <t>8 ST ANDREWS DRIVE LEICHHARDT QLD 4305</t>
+  </si>
+  <si>
+    <t>3/1A LYNDHURST STREET RICHMOND VIC 3121</t>
+  </si>
+  <si>
+    <t>33 SUMMERHILL CRESCENT ORMEAU HILLS QLD 4208</t>
+  </si>
+  <si>
+    <t>24 DORSET STREET HAYNES WA 6112</t>
+  </si>
+  <si>
+    <t>15 THE HEIGHTS HILLVUE NSW 2340</t>
+  </si>
+  <si>
+    <t>60/36 QUEEN VICTORIA STREET FREMANTLE WA 6160</t>
+  </si>
+  <si>
+    <t>136B MERRIGANG STREET BOWRAL NSW 2576</t>
+  </si>
+  <si>
+    <t>146-148 PANITZ DRIVE JIMBOOMBA QLD 4280</t>
+  </si>
+  <si>
+    <t>54 SIENNA CIRCUIT YARRABILBA QLD 4207</t>
+  </si>
+  <si>
+    <t>20 WOODLEIGH WAY HARRISDALE WA 6112</t>
+  </si>
+  <si>
+    <t>1/10 BUSS STREET BUNDABERG SOUTH QLD 4670</t>
+  </si>
+  <si>
+    <t>10 BIARA GARDENS MOUNT CLAREMONT WA 6010</t>
+  </si>
+  <si>
+    <t>71A BENARA ROAD NORANDA WA 6062</t>
+  </si>
+  <si>
+    <t>24 BINDA AVENUE SPRINGVALE VIC 3171</t>
+  </si>
+  <si>
+    <t>13 CALADENIA STREET DEEBING HEIGHTS QLD 4306</t>
+  </si>
+  <si>
+    <t>15/41-45 SOUTH STREET RYDALMERE NSW 2116</t>
+  </si>
+  <si>
+    <t>2/37 CHARLES STREET ST ALBANS VIC 3021</t>
+  </si>
+  <si>
+    <t>47 FIRMSTONE ROAD LENEVA VIC 3691</t>
   </si>
   <si>
     <t>na</t>
   </si>
   <si>
-    <t>3 ROSELLA CLOSE BLAXLAND NSW 2774</t>
-  </si>
-  <si>
-    <t>90/18 EDGEWOOD CRESCENT CABARITA NSW 2137</t>
-  </si>
-  <si>
-    <t>1 SECOND AVENUE CAMPSIE NSW 2194</t>
-  </si>
-  <si>
-    <t>16/16-18 CARLTON PARADE CARLTON NSW 2218</t>
-  </si>
-  <si>
-    <t>53 DE MEYRICK AVENUE CASULA NSW 2170</t>
-  </si>
-  <si>
-    <t>2/481 HANEL STREET EAST ALBURY NSW 2640</t>
-  </si>
-  <si>
-    <t>23 MCKINNON STREET EAST BALLINA NSW 2478</t>
+    <t>7 MCKINLEY ROAD HILBERT WA 6112</t>
+  </si>
+  <si>
+    <t>25 MAGILTAN DRIVE STRATHBOGIE VIC 3666</t>
+  </si>
+  <si>
+    <t>13 BANJOLINA CIRCUIT CRAIGIEBURN VIC 3064</t>
+  </si>
+  <si>
+    <t>1 LAKES CRESCENT SOUTH YUNDERUP WA 6208</t>
+  </si>
+  <si>
+    <t>105/151-153 HUNTINGDALE ROAD ASHWOOD VIC 3147</t>
+  </si>
+  <si>
+    <t>16A TINDALL COURT ALLIGATOR CREEK QLD 4816</t>
+  </si>
+  <si>
+    <t>1005/145 QUEENSBERRY STREET CARLTON VIC 3053</t>
   </si>
 </sst>
 </file>
@@ -320,6 +320,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -327,13 +334,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -356,78 +356,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -452,31 +452,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,30 +524,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -519,18 +531,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,7 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,7 +664,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -676,115 +676,115 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1119,8 +1119,8 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul\Desktop\ANZ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C1B891-509F-4B66-8AC9-A852080F4FD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="2685" windowWidth="11250" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20385" windowHeight="8295"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,613 +14,625 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
   <si>
     <t>Address</t>
   </si>
   <si>
+    <t>10 HESTER ROAD LEURA NSW 2780</t>
+  </si>
+  <si>
+    <t>701 DINGO BEACH ROAD GREGORY RIVER QLD 4800</t>
+  </si>
+  <si>
+    <t>15-17 FIG COURT CEDAR GROVE QLD 4285</t>
+  </si>
+  <si>
+    <t>8 REILLY STREET LIVERPOOL NSW 2170</t>
+  </si>
+  <si>
+    <t>145 EDWARD STREET CHARLEVILLE QLD 4470</t>
+  </si>
+  <si>
+    <t>1/60 FRASER ROAD LONG JETTY NSW 2261</t>
+  </si>
+  <si>
+    <t>27 STELLA STREET LONG JETTY NSW 2261</t>
+  </si>
+  <si>
+    <t>10B ALEXANDER CRESCENT MACQUARIE FIELDS NSW 2564</t>
+  </si>
+  <si>
+    <t>2/58 MYEE ROAD MACQUARIE FIELDS NSW 2564</t>
+  </si>
+  <si>
+    <t>10 BAYSHORE PLACE CLEVELAND QLD 4163</t>
+  </si>
+  <si>
+    <t>206 BLOOMFIELD STREET CLEVELAND QLD 4163</t>
+  </si>
+  <si>
+    <t>82 LONG STREET CLEVELAND QLD 4163</t>
+  </si>
+  <si>
+    <t>148 SHORE STREET NORTH CLEVELAND QLD 4163</t>
+  </si>
+  <si>
+    <t>8 HARTIG CRESCENT CLONCURRY QLD 4824</t>
+  </si>
+  <si>
+    <t>10 MARTEL CRESCENT CLONCURRY QLD 4824</t>
+  </si>
+  <si>
+    <t>56-58 TRANSMISSION STREET CLONCURRY QLD 4824</t>
+  </si>
+  <si>
+    <t>19 WARATAH DRIVE CLONTARF QLD 4019</t>
+  </si>
+  <si>
+    <t>3 BEATTY STREET COALFALLS QLD 4305</t>
+  </si>
+  <si>
+    <t>6/2A KANGAROO STREET MANLY NSW 2095</t>
+  </si>
+  <si>
+    <t>8 KITCHING COURT COLLINGWOOD PARK QLD 4301</t>
+  </si>
+  <si>
+    <t>52 RIVEROAK DRIVE MARDI NSW 2259</t>
+  </si>
+  <si>
+    <t>80 WOODBURY PARK DRIVE MARDI NSW 2259</t>
+  </si>
+  <si>
+    <t>34 MARCO POLO DRIVE COOLOOLA COVE QLD 4580</t>
+  </si>
+  <si>
+    <t>3/26 HENSON STREET MARRICKVILLE NSW 2204</t>
+  </si>
+  <si>
+    <t>34/17-19 BUSACO ROAD MARSFIELD NSW 2122</t>
+  </si>
+  <si>
+    <t>112 MAPLE STREET COOROY QLD 4563</t>
+  </si>
+  <si>
+    <t>10 BARRINGTON CRESCENT MARYLAND NSW 2287</t>
+  </si>
+  <si>
+    <t>3 DAISY COURT CORAL COVE QLD 4670</t>
+  </si>
+  <si>
+    <t>5 OAKMONT AVENUE CORNUBIA QLD 4130</t>
+  </si>
+  <si>
+    <t>8 MOUNTER STREET MAYFIELD EAST NSW 2304</t>
+  </si>
+  <si>
+    <t>301 MAITLAND ROAD MAYFIELD WEST NSW 2304</t>
+  </si>
+  <si>
+    <t>51 HEPBURN STREET MCKELLARS PARK NSW 2790</t>
+  </si>
+  <si>
+    <t>3 ABBEYFEALE STREET CRESTMEAD QLD 4132</t>
+  </si>
+  <si>
+    <t>10 JAMES STREET CRESTMEAD QLD 4132</t>
+  </si>
+  <si>
+    <t>6 RUNDELL STREET CRESTMEAD QLD 4132</t>
+  </si>
+  <si>
+    <t>81 KINDLEBARK DRIVE MEDOWIE NSW 2318</t>
+  </si>
+  <si>
+    <t>6 BIRUBI STREET CURRIMUNDI QLD 4551</t>
+  </si>
+  <si>
+    <t>22 CLIVES CIRCUIT CURRUMBIN WATERS QLD 4223</t>
+  </si>
+  <si>
+    <t>85 CLIVES CIRCUIT CURRUMBIN WATERS QLD 4223</t>
+  </si>
+  <si>
+    <t>191 BAKER STREET DARLING HEIGHTS QLD 4350</t>
+  </si>
+  <si>
+    <t>6 BATEMAN STREET DECEPTION BAY QLD 4508</t>
+  </si>
+  <si>
+    <t>89 CROOBYAR ROAD MILTON NSW 2538</t>
+  </si>
+  <si>
+    <t>20 WINLAND DRIVE DEEBING HEIGHTS QLD 4306</t>
+  </si>
+  <si>
     <t>na</t>
   </si>
   <si>
-    <t>5 DARLA PLACE ROSEBERY NT 0832</t>
-  </si>
-  <si>
-    <t>97 BRIGHTON DRIVE BELLA VISTA NSW 2153</t>
-  </si>
-  <si>
-    <t>74 STATION STREET BONNELLS BAY NSW 2264</t>
-  </si>
-  <si>
-    <t>41 MELLOR PLACE BONNYRIGG HEIGHTS NSW 2177</t>
-  </si>
-  <si>
-    <t>58 ERIDGE PARK ROAD BURRADOO NSW 2576</t>
-  </si>
-  <si>
-    <t>21 NORFOLK STREET CARDIFF NSW 2285</t>
-  </si>
-  <si>
-    <t>1978 CAWONGLA ROAD CAWONGLA NSW 2474</t>
-  </si>
-  <si>
-    <t>12 TANNABAH STREET COONABARABRAN NSW 2357</t>
-  </si>
-  <si>
-    <t>1021 FREEMANS DRIVE COORANBONG NSW 2265</t>
-  </si>
-  <si>
-    <t>8 MORAY COURT ALEXANDRA HILLS QLD 4161</t>
-  </si>
-  <si>
-    <t>7 LIMEWOOD PLACE ALGESTER QLD 4115</t>
-  </si>
-  <si>
-    <t>12 EMERALD PLACE GREEN POINT NSW 2428</t>
-  </si>
-  <si>
-    <t>2 KEPERRA COURT ARANA HILLS QLD 4054</t>
-  </si>
-  <si>
-    <t>8A AULT PLACE ILLAWONG NSW 2234</t>
-  </si>
-  <si>
-    <t>142 BYRON STREET INVERELL NSW 2360</t>
-  </si>
-  <si>
-    <t>4 EAST STREET INVERELL NSW 2360</t>
-  </si>
-  <si>
-    <t>46 SAYERS LANE INVERELL NSW 2360</t>
-  </si>
-  <si>
-    <t>10 JACK STREET INVERELL NSW 2360</t>
-  </si>
-  <si>
-    <t>46 ROSS STREET INVERELL NSW 2360</t>
-  </si>
-  <si>
-    <t>11 TULARE CRESCENT INVERELL NSW 2360</t>
-  </si>
-  <si>
-    <t>14 VINTAGE CLOSE INVERELL NSW 2360</t>
-  </si>
-  <si>
-    <t>38 WARATAH AVENUE INVERELL NSW 2360</t>
-  </si>
-  <si>
-    <t>82 JERRARA ROAD JERRARA NSW 2533</t>
-  </si>
-  <si>
-    <t>10 BIXBY COURT BORONIA HEIGHTS QLD 4124</t>
-  </si>
-  <si>
-    <t>13 NANBAREE DRIVE BRAY PARK QLD 4500</t>
-  </si>
-  <si>
-    <t>15 KANES ROAD BRIDGES QLD 4561</t>
-  </si>
-  <si>
-    <t>68/220 CHRISTINE AVENUE BURLEIGH WATERS QLD 4220</t>
-  </si>
-  <si>
-    <t>23 CLARA STREET CAMP HILL QLD 4152</t>
-  </si>
-  <si>
-    <t>24 LAWTON LANE CANUNGRA QLD 4275</t>
-  </si>
-  <si>
-    <t>265 WINSTANLEY STREET CARINDALE QLD 4152</t>
-  </si>
-  <si>
-    <t>32 MOLESWORTH STREET LISMORE NSW 2480</t>
-  </si>
-  <si>
-    <t>61 RIVERTON STREET CLAYFIELD QLD 4011</t>
-  </si>
-  <si>
-    <t>201/255-261 BOUNDARY STREET COOLANGATTA QLD 4225</t>
-  </si>
-  <si>
-    <t>17 KIMBERLY GRANGE COURT CURRA QLD 4570</t>
-  </si>
-  <si>
-    <t>2/8 DANDALOO DRIVE CURRUMBIN QLD 4223</t>
-  </si>
-  <si>
-    <t>31 BEAUFORT PLACE DECEPTION BAY QLD 4508</t>
-  </si>
-  <si>
-    <t>10-12 BISHOP STREET EAGLEBY QLD 4207</t>
-  </si>
-  <si>
-    <t>9 TINEELE PLACE EMERALD QLD 4720</t>
-  </si>
-  <si>
-    <t>3/26 FEHLBERG STREET EVERTON PARK QLD 4053</t>
-  </si>
-  <si>
-    <t>1/19 NITAWILL STREET EVERTON PARK QLD 4053</t>
-  </si>
-  <si>
-    <t>4 RADIATA PLACE FOREST LAKE QLD 4078</t>
-  </si>
-  <si>
-    <t>1/33 STATION AVENUE GAYTHORNE QLD 4051</t>
-  </si>
-  <si>
-    <t>23 IRON STREET GYMPIE QLD 4570</t>
-  </si>
-  <si>
-    <t>180 BAPAUME ROAD HOLLAND PARK WEST QLD 4121</t>
-  </si>
-  <si>
-    <t>156 BIRDWOOD ROAD HOLLAND PARK WEST QLD 4121</t>
-  </si>
-  <si>
-    <t>14/1-3 PERCIVAL STREET PENSHURST NSW 2222</t>
-  </si>
-  <si>
-    <t>201 KLINGNER ROAD KIPPA-RING QLD 4021</t>
-  </si>
-  <si>
-    <t>2/6 HENTDALE COURT LABRADOR QLD 4215</t>
-  </si>
-  <si>
-    <t>54/91 HOARE STREET MANUNDA QLD 4870</t>
-  </si>
-  <si>
-    <t>35 CHRISTENSEN CRESCENT MARYBOROUGH QLD 4650</t>
-  </si>
-  <si>
-    <t>287 LITTLE NERANG ROAD MUDGEERABA QLD 4213</t>
-  </si>
-  <si>
-    <t>8 PLANET PLACE MUDGEERABA QLD 4213</t>
-  </si>
-  <si>
-    <t>18 JAMES STREET SOUTH WINDSOR NSW 2756</t>
-  </si>
-  <si>
-    <t>4 ROVERE STREET NERANG QLD 4211</t>
-  </si>
-  <si>
-    <t>6/45 WICKHAM STREET NEWMARKET QLD 4051</t>
-  </si>
-  <si>
-    <t>9 WYNDHAM STREET NORTH IPSWICH QLD 4305</t>
-  </si>
-  <si>
-    <t>29 HEATHCOTE AVENUE NORTH LAKES QLD 4509</t>
-  </si>
-  <si>
-    <t>8 LOCHERN COURT NORTH LAKES QLD 4509</t>
-  </si>
-  <si>
-    <t>3/9 OLIVE STREET NUNDAH QLD 4012</t>
-  </si>
-  <si>
-    <t>102 MCAULEY PARADE PACIFIC PINES QLD 4211</t>
-  </si>
-  <si>
-    <t>33 LEYTE AVENUE PALM BEACH QLD 4221</t>
-  </si>
-  <si>
-    <t>6/4 JACOB STREET TEA GARDENS NSW 2324</t>
-  </si>
-  <si>
-    <t>42A PENROSE CIRCUIT REDBANK PLAINS QLD 4301</t>
-  </si>
-  <si>
-    <t>10 INGLES DRIVE REDBANK PLAINS QLD 4301</t>
-  </si>
-  <si>
-    <t>52 BENTLEY DRIVE REGENCY DOWNS QLD 4341</t>
-  </si>
-  <si>
-    <t>36 SOUTH STREET ROCKHAMPTON CITY QLD 4700</t>
-  </si>
-  <si>
-    <t>11 BEECHAL STREET RUNCORN QLD 4113</t>
-  </si>
-  <si>
-    <t>50 QUEEN STREET WARIALDA NSW 2402</t>
-  </si>
-  <si>
-    <t>9 TOLMAN STREET SIPPY DOWNS QLD 4556</t>
-  </si>
-  <si>
-    <t>31 ELMWOOD CIRCUIT SPRINGFIELD LAKES QLD 4300</t>
-  </si>
-  <si>
-    <t>80D/26-38 MECKLEM STREET STRATHPINE QLD 4500</t>
-  </si>
-  <si>
-    <t>37 MELALEUCA DRIVE STRATHPINE QLD 4500</t>
-  </si>
-  <si>
-    <t>20 PINECONE STREET SUNNYBANK QLD 4109</t>
-  </si>
-  <si>
-    <t>69/3049 SURFERS PARADISE BOULEVARD SURFERS PARADISE QLD 4217</t>
-  </si>
-  <si>
-    <t>18 PORTER STREET TARA QLD 4421</t>
-  </si>
-  <si>
-    <t>52/35 MORROW STREET TARINGA QLD 4068</t>
-  </si>
-  <si>
-    <t>80 SELWYN STREET ADELONG NSW 2729</t>
-  </si>
-  <si>
-    <t>6/3 LANGTON STREET TOOWOOMBA CITY QLD 4350</t>
-  </si>
-  <si>
-    <t>13A BAYVIEW CRESCENT ANNANDALE NSW 2038</t>
-  </si>
-  <si>
-    <t>1062 MONDURAN ROAD WATERLOO QLD 4673</t>
-  </si>
-  <si>
-    <t>23 MINOA STREET WOODRIDGE QLD 4114</t>
-  </si>
-  <si>
-    <t>4 WESTAWAY PLACE WYNNUM WEST QLD 4178</t>
-  </si>
-  <si>
-    <t>25 EDEN WAY YEPPOON QLD 4703</t>
-  </si>
-  <si>
-    <t>2 HONEYSUCKLE DRIVE BALAKLAVA SA 5461</t>
-  </si>
-  <si>
-    <t>2 BROOKMAN COURT BLAIR ATHOL SA 5084</t>
-  </si>
-  <si>
-    <t>8/88 LYONS ROAD HOLDEN HILL SA 5088</t>
-  </si>
-  <si>
-    <t>25 ENGLISH DRIVE MILLICENT SA 5280</t>
-  </si>
-  <si>
-    <t>15 ARDENNE CLOSE BURWOOD VIC 3125</t>
-  </si>
-  <si>
-    <t>13/718 LOWER NORTH EAST ROAD PARADISE SA 5075</t>
-  </si>
-  <si>
-    <t>2/1060 LYGON STREET CARLTON NORTH VIC 3054</t>
-  </si>
-  <si>
-    <t>6 DYLAN COURT WOODCROFT SA 5162</t>
-  </si>
-  <si>
-    <t>48 GORDON STREET MARIBYRNONG VIC 3032</t>
-  </si>
-  <si>
-    <t>22/392-394 NEPEAN HIGHWAY FRANKSTON VIC 3199</t>
-  </si>
-  <si>
-    <t>6 BANOOL COURT FRANKSTON SOUTH VIC 3199</t>
-  </si>
-  <si>
-    <t>8 SOMERS COURT GLEN WAVERLEY VIC 3150</t>
-  </si>
-  <si>
-    <t>259 HEATHCOTE-REDESDALE ROAD HEATHCOTE VIC 3523</t>
-  </si>
-  <si>
-    <t>52 PIER ROAD INVERLOCH VIC 3996</t>
-  </si>
-  <si>
-    <t>2/210 CRANBOURNE-FRANKSTON ROAD LANGWARRIN VIC 3910</t>
-  </si>
-  <si>
-    <t>1 CAULSON COURT CHURCHLANDS WA 6018</t>
-  </si>
-  <si>
-    <t>229 DALYELLUP BOULEVARD DALYELLUP WA 6230</t>
-  </si>
-  <si>
-    <t>12 EXCHEQUER AVENUE GREENFIELDS WA 6210</t>
-  </si>
-  <si>
-    <t>7A KITE COURT HUNTINGDALE WA 6110</t>
-  </si>
-  <si>
-    <t>22 BARWON STREET LESMURDIE WA 6076</t>
-  </si>
-  <si>
-    <t>17 FREEMAN WAY MARMION WA 6020</t>
-  </si>
-  <si>
-    <t>15/33 KATHLEEN AVENUE MAYLANDS WA 6051</t>
-  </si>
-  <si>
-    <t>59 BROWNS ROAD SMYTHESDALE VIC 3351</t>
-  </si>
-  <si>
-    <t>3/17 FITZROY ROAD RIVERVALE WA 6103</t>
-  </si>
-  <si>
-    <t>15 GARIBALDI STREET TRARALGON VIC 3844</t>
-  </si>
-  <si>
-    <t>57 WARWICK STREET CLEARVIEW SA 5085</t>
-  </si>
-  <si>
-    <t>8 GEORGE FLEMMING ROAD WINGHAM NSW 2429</t>
-  </si>
-  <si>
-    <t>39 HAROLD REINHARDT DRIVE REDBANK PLAINS QLD 4301</t>
-  </si>
-  <si>
-    <t>8 O'REILLY CRESCENT SPRINGFIELD LAKES QLD 4300</t>
-  </si>
-  <si>
-    <t>42 DOG TRAP LANE INVERELL NSW 2360</t>
-  </si>
-  <si>
-    <t>1/105 SIMPSON AVENUE ROCKINGHAM WA 6168</t>
-  </si>
-  <si>
-    <t>15 ROSEMOUNT ENTRANCE PEARSALL WA 6065</t>
-  </si>
-  <si>
-    <t>3 VENTASSO STREET CLYDE NORTH VIC 3978</t>
-  </si>
-  <si>
-    <t>36/140 ENDEAVOUR BOULEVARD NORTH LAKES QLD 4509</t>
-  </si>
-  <si>
-    <t>1003/33 MACKENZIE STREET MELBOURNE VIC 3000</t>
-  </si>
-  <si>
-    <t>3 BOWRAL WAY TRARALGON VIC 3844</t>
-  </si>
-  <si>
-    <t>26 LINACRE CRESCENT CARINDALE QLD 4152</t>
-  </si>
-  <si>
-    <t>101 SWAN PARADE WARNER QLD 4500</t>
-  </si>
-  <si>
-    <t>72 MACQUARIE CIRCUIT FITZGIBBON QLD 4018</t>
-  </si>
-  <si>
-    <t>18 CORSICAN STREET FRANKSTON NORTH VIC 3200</t>
-  </si>
-  <si>
-    <t>3 TULLY LANE COOMERA QLD 4209</t>
-  </si>
-  <si>
-    <t>33 ALTERNATIVE WAY NIMBIN NSW 2480</t>
-  </si>
-  <si>
-    <t>305/17 GRATTAN CLOSE FOREST LODGE NSW 2037</t>
-  </si>
-  <si>
-    <t>1 SONOMA DRIVE HOLMVIEW QLD 4207</t>
-  </si>
-  <si>
-    <t>9 CASTLE CLOSE TOORADIN VIC 3980</t>
-  </si>
-  <si>
-    <t>21 SHELMORE DRIVE OLD BEACH TAS 7017</t>
-  </si>
-  <si>
-    <t>127 SEYMOUR STREET TRARALGON VIC 3844</t>
-  </si>
-  <si>
-    <t>2/122 ROBSONS ROAD WEST WOLLONGONG NSW 2500</t>
-  </si>
-  <si>
-    <t>1 OTHO STREET INVERELL NSW 2360</t>
-  </si>
-  <si>
-    <t>35/35-A ALBURY STREET ASHFORD NSW 2361</t>
-  </si>
-  <si>
-    <t>6 MCARTHUR PARADE BARINGA QLD 4551</t>
-  </si>
-  <si>
-    <t>62 DISCOVERY BOULEVARD MOE VIC 3825</t>
-  </si>
-  <si>
-    <t>10B WHITESIDE ROAD OFFICER VIC 3809</t>
-  </si>
-  <si>
-    <t>22 THANE COURT LLOYD NSW 2650</t>
-  </si>
-  <si>
-    <t>27 SHAILER ROAD SHAILER PARK QLD 4128</t>
-  </si>
-  <si>
-    <t>4/7 MAYHILL PLACE CRAIGIE WA 6025</t>
-  </si>
-  <si>
-    <t>6/7 MAYHILL PLACE CRAIGIE WA 6025</t>
-  </si>
-  <si>
-    <t>1/1B LLEWELLYN STREET CENTENARY HEIGHTS QLD 4350</t>
-  </si>
-  <si>
-    <t>17 FLANDERS PLACE ALEXANDER HEIGHTS WA 6064</t>
-  </si>
-  <si>
-    <t>4B NASH STREET HILLARYS WA 6025</t>
-  </si>
-  <si>
-    <t>18/89 BRITTEN-JONES DRIVE HOLT ACT 2615</t>
-  </si>
-  <si>
-    <t>109 ONKAPARINGA CRESCENT KALEEN ACT 2617</t>
-  </si>
-  <si>
-    <t>4/6 STODDART DRIVE BAYVIEW NT 0820</t>
-  </si>
-  <si>
-    <t>15/101 MITCHELL STREET DARWIN NT 0800</t>
-  </si>
-  <si>
-    <t>11 BLUE HAZE CRESCENT BANORA POINT NSW 2486</t>
-  </si>
-  <si>
-    <t>76 BOTANICAL CIRCUIT BANORA POINT NSW 2486</t>
-  </si>
-  <si>
-    <t>21-29 THIRD AVENUE BLACKTOWN NSW 2148</t>
-  </si>
-  <si>
-    <t>3 ROSELLA CLOSE BLAXLAND NSW 2774</t>
-  </si>
-  <si>
-    <t>90/18 EDGEWOOD CRESCENT CABARITA NSW 2137</t>
-  </si>
-  <si>
-    <t>1 SECOND AVENUE CAMPSIE NSW 2194</t>
-  </si>
-  <si>
-    <t>16/16-18 CARLTON PARADE CARLTON NSW 2218</t>
-  </si>
-  <si>
-    <t>53 DE MEYRICK AVENUE CASULA NSW 2170</t>
-  </si>
-  <si>
-    <t>2/481 HANEL STREET EAST ALBURY NSW 2640</t>
-  </si>
-  <si>
-    <t>23 MCKINNON STREET EAST BALLINA NSW 2478</t>
-  </si>
-  <si>
-    <t>51 NARANG STREET EAST MAITLAND NSW 2323</t>
-  </si>
-  <si>
-    <t>4 SHORT STREET FORSTER NSW 2428</t>
-  </si>
-  <si>
-    <t>24 PINAROO DRIVE GLENFIELD PARK NSW 2650</t>
-  </si>
-  <si>
-    <t>30 SEPARATION STREET ALLENSTOWN QLD 4700</t>
-  </si>
-  <si>
-    <t>15 TINDALL COURT ALLIGATOR CREEK QLD 4816</t>
-  </si>
-  <si>
-    <t>7/93 DOBSON STREET ASCOT QLD 4007</t>
-  </si>
-  <si>
-    <t>78 PIE STREET ASPLEY QLD 4034</t>
-  </si>
-  <si>
-    <t>16 BALDWIN CRESCENT AVOCA QLD 4670</t>
-  </si>
-  <si>
-    <t>15 LADBROKE CLOSE CARSELDINE QLD 4034</t>
-  </si>
-  <si>
-    <t>2/2A TANNER STREET BARGARA QLD 4670</t>
-  </si>
-  <si>
-    <t>3/2A TANNER STREET BARGARA QLD 4670</t>
-  </si>
-  <si>
-    <t>4070/36 BROWNING BOULEVARD BATTERY HILL QLD 4551</t>
-  </si>
-  <si>
-    <t>30 BAWDEN STREET BERSERKER QLD 4701</t>
-  </si>
-  <si>
-    <t>16 SOVEREIGN STREET ILUKA NSW 2466</t>
-  </si>
-  <si>
-    <t>6 CLOVERBROOK PLACE BRACKEN RIDGE QLD 4017</t>
-  </si>
-  <si>
-    <t>14 MISSISSIPPI CRESCENT KEARNS NSW 2558</t>
-  </si>
-  <si>
-    <t>6 SPRUCE COURT BUDERIM QLD 4556</t>
-  </si>
-  <si>
-    <t>11 OLSEN STREET BUNDABERG EAST QLD 4670</t>
-  </si>
-  <si>
-    <t>3/3 GOODWIN STREET BUNDABERG SOUTH QLD 4670</t>
-  </si>
-  <si>
-    <t>11/15A AVOCA STREET BUNDABERG WEST QLD 4670</t>
-  </si>
-  <si>
-    <t>24/28-32 VANTAGE POINT DRIVE BURLEIGH HEADS QLD 4220</t>
-  </si>
-  <si>
-    <t>115 SEA ESPLANADE BURNETT HEADS QLD 4670</t>
-  </si>
-  <si>
-    <t>16/36-40 LANDERS ROAD LANE COVE NORTH NSW 2066</t>
-  </si>
-  <si>
-    <t>18 GRACE AVENUE CANNONVALE QLD 4802</t>
-  </si>
-  <si>
-    <t>35 WENTWORTH DRIVE CAPALABA QLD 4157</t>
-  </si>
-  <si>
-    <t>33 GLASTONBURY PLACE CARINDALE QLD 4152</t>
-  </si>
-  <si>
-    <t>233 MEMORIAL AVENUE LIVERPOOL NSW 2170</t>
-  </si>
-  <si>
-    <t>7 DAYTONA AVENUE COOLUM BEACH QLD 4573</t>
-  </si>
-  <si>
-    <t>10 KEILEY STREET MARSFIELD NSW 2122</t>
-  </si>
-  <si>
-    <t>22 WALKER STREET COORPAROO QLD 4151</t>
-  </si>
-  <si>
-    <t>194 MEREWETHER STREET MEREWETHER NSW 2291</t>
-  </si>
-  <si>
-    <t>5 HILLMEADS STREET MERIMBULA NSW 2548</t>
-  </si>
-  <si>
-    <t>15-17 DAISY HILL ROAD DAISY HILL QLD 4127</t>
-  </si>
-  <si>
-    <t>23 LINDSAY STREET DALBY QLD 4405</t>
-  </si>
-  <si>
-    <t>62 PATRICK STREET DALBY QLD 4405</t>
-  </si>
-  <si>
-    <t>20 DUNDABELLA DRIVE DEERAGUN QLD 4818</t>
-  </si>
-  <si>
-    <t>7 DE VECCHI CLOSE EDMONTON QLD 4869</t>
-  </si>
-  <si>
-    <t>146 PADSTOW ROAD EIGHT MILE PLAINS QLD 4113</t>
-  </si>
-  <si>
-    <t>10 LEVY ROAD ELIMBAH QLD 4516</t>
-  </si>
-  <si>
-    <t>102 FULLER STREET MOUNT DRUITT NSW 2770</t>
-  </si>
-  <si>
-    <t>55 BUCKLAND ROAD EVERTON HILLS QLD 4053</t>
+    <t>33 BRUSHTAIL CRESCENT DOOLANDELLA QLD 4077</t>
+  </si>
+  <si>
+    <t>19 COCKATOO CIRCUIT DOUGLAS QLD 4814</t>
+  </si>
+  <si>
+    <t>31 WINIFRED CRESCENT MITTAGONG NSW 2575</t>
+  </si>
+  <si>
+    <t>816 PRINCES HIGHWAY MOGO NSW 2536</t>
+  </si>
+  <si>
+    <t>9/28 BUCHAN STREET MOLLYMOOK NSW 2539</t>
+  </si>
+  <si>
+    <t>92 GIDLEY STREET MOLONG NSW 2866</t>
+  </si>
+  <si>
+    <t>16 MAGRA COURT EAGLEBY QLD 4207</t>
+  </si>
+  <si>
+    <t>7 THOMAS STREET MOONBI NSW 2353</t>
+  </si>
+  <si>
+    <t>23 CARMEL STREET EAST INNISFAIL QLD 4860</t>
+  </si>
+  <si>
+    <t>29 CHESTER STREET MOREE NSW 2400</t>
+  </si>
+  <si>
+    <t>4 MINNIS STREET EASTERN HEIGHTS QLD 4305</t>
+  </si>
+  <si>
+    <t>1 ELLEN SUBWAY MORTDALE NSW 2223</t>
+  </si>
+  <si>
+    <t>1 MACDONALD STREET EIDSVOLD QLD 4627</t>
+  </si>
+  <si>
+    <t>9 DUSTWILL STREET EIMEO QLD 4740</t>
+  </si>
+  <si>
+    <t>145/2-10 COOLGARDIE STREET ELANORA QLD 4221</t>
+  </si>
+  <si>
+    <t>17 CAMPBELL STREET EMERALD QLD 4720</t>
+  </si>
+  <si>
+    <t>41 ROSE DRIVE MOUNT ANNAN NSW 2567</t>
+  </si>
+  <si>
+    <t>3 HEREFORD PLACE EMERALD QLD 4720</t>
+  </si>
+  <si>
+    <t>6 MOODY STREET EMERALD QLD 4720</t>
+  </si>
+  <si>
+    <t>50 BULLER STREET EVERTON PARK QLD 4053</t>
+  </si>
+  <si>
+    <t>13A WINTER STREET MUDGEE NSW 2850</t>
+  </si>
+  <si>
+    <t>35 REDBANK ROAD MUDGEE NSW 2850</t>
+  </si>
+  <si>
+    <t>8 WILLOWTREE DRIVE FLINDERS VIEW QLD 4305</t>
+  </si>
+  <si>
+    <t>23 DANBULLA CRESCENT FOREST LAKE QLD 4078</t>
+  </si>
+  <si>
+    <t>11 MONTEREY CLOSE FOREST LAKE QLD 4078</t>
+  </si>
+  <si>
+    <t>2 CEDAR STREET FORREST BEACH QLD 4850</t>
+  </si>
+  <si>
+    <t>19 DONALDSON STREET MUSWELLBROOK NSW 2333</t>
+  </si>
+  <si>
+    <t>11 SOWERBY AVENUE MUSWELLBROOK NSW 2333</t>
+  </si>
+  <si>
+    <t>89 HAMMOND ROAD FREESTONE QLD 4370</t>
+  </si>
+  <si>
+    <t>383 PHILP AVENUE FRENCHVILLE QLD 4701</t>
+  </si>
+  <si>
+    <t>198 MIRAN KHAN DRIVE ARMSTRONG BEACH QLD 4737</t>
+  </si>
+  <si>
+    <t>45 MALIWA ROAD NARARA NSW 2250</t>
+  </si>
+  <si>
+    <t>15 PICCADILLY STREET GEEBUNG QLD 4034</t>
+  </si>
+  <si>
+    <t>169 JUDDS ROAD GLASS HOUSE MOUNTAINS QLD 4518</t>
+  </si>
+  <si>
+    <t>31 AUDLEY STREET NARRANDERA NSW 2700</t>
+  </si>
+  <si>
+    <t>90 ALFRED ROAD NARRAWEENA NSW 2099</t>
+  </si>
+  <si>
+    <t>24 NASH DRIVE GLENVALE QLD 4350</t>
+  </si>
+  <si>
+    <t>84 LANDSBOROUGH PARADE GOLDEN BEACH QLD 4551</t>
+  </si>
+  <si>
+    <t>210/61B DOWLING STREET NELSON BAY NSW 2315</t>
+  </si>
+  <si>
+    <t>69 BERTHA STREET GOODNA QLD 4300</t>
+  </si>
+  <si>
+    <t>3 HOLMES COURT GOODNA QLD 4300</t>
+  </si>
+  <si>
+    <t>105 POLLOCKS ROAD GOONDIWINDI QLD 4390</t>
+  </si>
+  <si>
+    <t>305/209 HUNTER STREET NEWCASTLE NSW 2300</t>
+  </si>
+  <si>
+    <t>78 RAYMONT ROAD GRANGE QLD 4051</t>
+  </si>
+  <si>
+    <t>6 HAWKEN STREET NEWTOWN NSW 2042</t>
+  </si>
+  <si>
+    <t>515 LOGAN ROAD GREENSLOPES QLD 4120</t>
+  </si>
+  <si>
+    <t>82 HORSESHOE BEND GYMPIE QLD 4570</t>
+  </si>
+  <si>
+    <t>276 LOWRY STREET NORTH ALBURY NSW 2640</t>
+  </si>
+  <si>
+    <t>12 FLYNN STREET HARLAXTON QLD 4350</t>
+  </si>
+  <si>
+    <t>20-22 WRAY STREET NORTH BATEMANS BAY NSW 2536</t>
+  </si>
+  <si>
+    <t>26 WRAY STREET NORTH BATEMANS BAY NSW 2536</t>
+  </si>
+  <si>
+    <t>9/55-57 SORRELL STREET PARRAMATTA NSW 2150</t>
+  </si>
+  <si>
+    <t>4 HAYMAN STREET NORTH RICHMOND NSW 2754</t>
+  </si>
+  <si>
+    <t>61 PRING STREET HENDRA QLD 4011</t>
+  </si>
+  <si>
+    <t>38 EPPING ROAD NORTH RYDE NSW 2113</t>
+  </si>
+  <si>
+    <t>12 CARMODY STREET HERMIT PARK QLD 4812</t>
+  </si>
+  <si>
+    <t>11 ASH STREET NORTH ST MARYS NSW 2760</t>
+  </si>
+  <si>
+    <t>35 MITCHELL ROAD HIGHFIELDS QLD 4352</t>
+  </si>
+  <si>
+    <t>13/67 GLADSTONE ROAD HIGHGATE HILL QLD 4101</t>
+  </si>
+  <si>
+    <t>8 RATHBONE STREET HILLCREST QLD 4118</t>
+  </si>
+  <si>
+    <t>12 KURTS STREET HOLLAND PARK WEST QLD 4121</t>
+  </si>
+  <si>
+    <t>14 FOURTEENTH A STREET HOME HILL QLD 4806</t>
+  </si>
+  <si>
+    <t>63 THIRTEENTH AVENUE HOME HILL QLD 4806</t>
+  </si>
+  <si>
+    <t>76 TWELFTH AVENUE HOME HILL QLD 4806</t>
+  </si>
+  <si>
+    <t>5 BYRON AVENUE NORTH NOWRA NSW 2541</t>
+  </si>
+  <si>
+    <t>31 GARDEN AVENUE NUNDERI NSW 2484</t>
+  </si>
+  <si>
+    <t>42 PHILIP STREET HOWARD QLD 4659</t>
+  </si>
+  <si>
+    <t>42 WHITLEY STREET HOWARD QLD 4659</t>
+  </si>
+  <si>
+    <t>20 ROTUMA STREET OAKHURST NSW 2761</t>
+  </si>
+  <si>
+    <t>86 POINSETTIA STREET INALA QLD 4077</t>
+  </si>
+  <si>
+    <t>1 CAWANA PLACE ORANGE NSW 2800</t>
+  </si>
+  <si>
+    <t>6 MOROBE PLACE ORANGE NSW 2800</t>
+  </si>
+  <si>
+    <t>28 MUNMORA PLACE OXLEY PARK NSW 2760</t>
+  </si>
+  <si>
+    <t>46 BLAZEY STREET KALLANGUR QLD 4503</t>
+  </si>
+  <si>
+    <t>29/1 GOODWIN STREET KANGAROO POINT QLD 4169</t>
+  </si>
+  <si>
+    <t>19 HEATHER STREET KARALEE QLD 4306</t>
+  </si>
+  <si>
+    <t>48 COL KITCHING DRIVE KARUMBA QLD 4891</t>
+  </si>
+  <si>
+    <t>241 RICHARDSON ROAD KAWANA QLD 4701</t>
+  </si>
+  <si>
+    <t>12 CROMDALE CIRCUIT KAWUNGAN QLD 4655</t>
+  </si>
+  <si>
+    <t>18 JUBILEE STREET PARKES NSW 2870</t>
+  </si>
+  <si>
+    <t>4/20 GREAT WESTERN HIGHWAY PARRAMATTA NSW 2150</t>
+  </si>
+  <si>
+    <t>34 CHALLENGE AVENUE KENSINGTON GROVE QLD 4341</t>
+  </si>
+  <si>
+    <t>8 KIRRA CLOSE KEWARRA BEACH QLD 4879</t>
+  </si>
+  <si>
+    <t>72 ACACIA STREET KILLARNEY QLD 4373</t>
+  </si>
+  <si>
+    <t>23 HILLCREST ROAD PENNANT HILLS NSW 2120</t>
+  </si>
+  <si>
+    <t>17 BELLATRIX DRIVE KINGSTON QLD 4114</t>
+  </si>
+  <si>
+    <t>6/45 VICTORIA AVENUE PENSHURST NSW 2222</t>
+  </si>
+  <si>
+    <t>2 HAWKHURST PLACE KIRWAN QLD 4817</t>
+  </si>
+  <si>
+    <t>24 ELDON STREET PITT TOWN NSW 2756</t>
+  </si>
+  <si>
+    <t>192 HYATTS ROAD PLUMPTON NSW 2761</t>
+  </si>
+  <si>
+    <t>11 CLEARWATER CRESCENT PORT MACQUARIE NSW 2444</t>
+  </si>
+  <si>
+    <t>23 HILL STREET PORT MACQUARIE NSW 2444</t>
+  </si>
+  <si>
+    <t>167-175 CENTRAL STREET LABRADOR QLD 4215</t>
+  </si>
+  <si>
+    <t>9/208 CENTRAL STREET LABRADOR QLD 4215</t>
+  </si>
+  <si>
+    <t>7 CHIRN CRESCENT LABRADOR QLD 4215</t>
+  </si>
+  <si>
+    <t>11/54 FRANK STREET LABRADOR QLD 4215</t>
+  </si>
+  <si>
+    <t>1/26 FREEMAN STREET LABRADOR QLD 4215</t>
+  </si>
+  <si>
+    <t>1 THE BOWSPRIT PORT MACQUARIE NSW 2444</t>
+  </si>
+  <si>
+    <t>24 RAILWAY STREET LAIDLEY QLD 4341</t>
+  </si>
+  <si>
+    <t>42/11 WEST DIANNE STREET LAWNTON QLD 4501</t>
+  </si>
+  <si>
+    <t>6 MCNAMARA STREET LEICHHARDT QLD 4305</t>
+  </si>
+  <si>
+    <t>6 O'KEEFE STREET LEICHHARDT QLD 4305</t>
+  </si>
+  <si>
+    <t>90 SUNSET DRIVE LITTLE MOUNTAIN QLD 4551</t>
+  </si>
+  <si>
+    <t>15 LACONIA STREET LOGAN CENTRAL QLD 4114</t>
+  </si>
+  <si>
+    <t>11 HARMAN COURT LOGANHOLME QLD 4129</t>
+  </si>
+  <si>
+    <t>22 DARRYL STREET LOGANLEA QLD 4131</t>
+  </si>
+  <si>
+    <t>10/23-25 MONASH ROAD LOGANLEA QLD 4131</t>
+  </si>
+  <si>
+    <t>14 PETER COOTE STREET QUIRINDI NSW 2343</t>
+  </si>
+  <si>
+    <t>5 CROWN CLOSE MALANDA QLD 4885</t>
+  </si>
+  <si>
+    <t>86 FIGTREE CLOSE MALANDA QLD 4885</t>
+  </si>
+  <si>
+    <t>35 HEALE STREET MALANDA QLD 4885</t>
+  </si>
+  <si>
+    <t>61/260 ALISON ROAD RANDWICK NSW 2031</t>
+  </si>
+  <si>
+    <t>17/4-5 HOLLETT CLOSE MANUNDA QLD 4870</t>
+  </si>
+  <si>
+    <t>146 SEMINARY ROAD MARBURG QLD 4346</t>
+  </si>
+  <si>
+    <t>80 JOSEPH SHEEN DRIVE RAYMOND TERRACE NSW 2324</t>
+  </si>
+  <si>
+    <t>10 ILUKA STREET MAREEBA QLD 4880</t>
+  </si>
+  <si>
+    <t>21 BLACKWOOD ROAD MARGATE QLD 4019</t>
+  </si>
+  <si>
+    <t>5/8-10 ARWEN STREET MAROOCHYDORE QLD 4558</t>
+  </si>
+  <si>
+    <t>160/19 ARWEN STREET MAROOCHYDORE QLD 4558</t>
+  </si>
+  <si>
+    <t>2/32 HORSLEY ROAD REVESBY NSW 2212</t>
+  </si>
+  <si>
+    <t>245 PICCADILLY STREET RIVERSTONE NSW 2765</t>
+  </si>
+  <si>
+    <t>4 PREMIER STREET MARYBOROUGH QLD 4650</t>
+  </si>
+  <si>
+    <t>6 URQUHART STREET RIVERWOOD NSW 2210</t>
+  </si>
+  <si>
+    <t>188 CAMOOWEAL STREET MENZIES QLD 4825</t>
+  </si>
+  <si>
+    <t>22 RAILWAY STREET ROOTY HILL NSW 2766</t>
+  </si>
+  <si>
+    <t>98 ROOTY HILL ROAD NORTH ROOTY HILL NSW 2766</t>
+  </si>
+  <si>
+    <t>11 OCEAN STREET MERMAID BEACH QLD 4218</t>
+  </si>
+  <si>
+    <t>5/18-20 CHALEYER STREET ROSE BAY NSW 2029</t>
+  </si>
+  <si>
+    <t>32/172 BARRIER REEF DRIVE MERMAID WATERS QLD 4218</t>
+  </si>
+  <si>
+    <t>109/83-93 DALMENY AVENUE ROSEBERY NSW 2018</t>
+  </si>
+  <si>
+    <t>193A KING GEORGES ROAD ROSELANDS NSW 2196</t>
+  </si>
+  <si>
+    <t>22 RIDGEWELL STREET ROSELANDS NSW 2196</t>
+  </si>
+  <si>
+    <t>15 KALLAY STREET MIAMI QLD 4220</t>
+  </si>
+  <si>
+    <t>3 SANDLEWOOD CLOSE ROUSE HILL NSW 2155</t>
+  </si>
+  <si>
+    <t>39 YELLOWGUM AVENUE ROUSE HILL NSW 2155</t>
+  </si>
+  <si>
+    <t>LOT 4 WYLIE ROAD MISSION BEACH QLD 4852</t>
+  </si>
+  <si>
+    <t>127 GLEN HOLM STREET MITCHELTON QLD 4053</t>
+  </si>
+  <si>
+    <t>3 JARDINE STREET MONTO QLD 4630</t>
+  </si>
+  <si>
+    <t>59 AMARINA AVENUE MOOLOOLABA QLD 4557</t>
+  </si>
+  <si>
+    <t>56B SALAMANDER WAY SALAMANDER BAY NSW 2317</t>
+  </si>
+  <si>
+    <t>49 FLAMINGO AVENUE SANCTUARY POINT NSW 2540</t>
+  </si>
+  <si>
+    <t>27 MOUNTAIN STREET SANCTUARY POINT NSW 2540</t>
+  </si>
+  <si>
+    <t>1/16 SMART STREET MOOROOBOOL QLD 4870</t>
+  </si>
+  <si>
+    <t>14 ARCHER DRIVE MORANBAH QLD 4744</t>
+  </si>
+  <si>
+    <t>23-25 MORRISON STREET SARATOGA NSW 2251</t>
+  </si>
+  <si>
+    <t>156 STEYNE ROAD SARATOGA NSW 2251</t>
+  </si>
+  <si>
+    <t>5 HIGHVIEW PARADE MORAYFIELD QLD 4506</t>
+  </si>
+  <si>
+    <t>40 NYARRA STREET SCONE NSW 2337</t>
+  </si>
+  <si>
+    <t>16 WATERLINE CLOSE MOUNT COOLUM QLD 4573</t>
+  </si>
+  <si>
+    <t>7-9 TALC STREET MOUNT GARNET QLD 4872</t>
+  </si>
+  <si>
+    <t>15 BLACK BRAES COURT MOUNT LOUISA QLD 4814</t>
+  </si>
+  <si>
+    <t>19 VIEW STREET SINGLETON NSW 2330</t>
+  </si>
+  <si>
+    <t>44 STUART HINDLE DRIVE MOUNT PLEASANT QLD 4740</t>
+  </si>
+  <si>
+    <t>12 TOLCHER STREET MOUNT PLEASANT QLD 4740</t>
+  </si>
+  <si>
+    <t>32 GOODSELL DRIVE BENTLEY PARK QLD 4869</t>
+  </si>
+  <si>
+    <t>62 YVONNE CRESCENT MOUNT WARREN PARK QLD 4207</t>
+  </si>
+  <si>
+    <t>246 MOURILYAN HARBOUR ROAD MOURILYAN QLD 4858</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,19 +643,349 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -657,32 +993,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -940,19 +1561,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F199"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A199"/>
+      <selection activeCell="A2" sqref="A2:A201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -961,998 +1582,1009 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2" t="s">
+      <c r="F44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="2" t="s">
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="1" t="s">
         <v>199</v>
       </c>
     </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>